--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final - Copy.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77415F35-182B-475C-861B-E985F3117DA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70218B9-C6E8-4AE2-A159-F45001B91EF1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,23 +131,16 @@
   </si>
   <si>
     <t xml:space="preserve">
-Now fill in the below grid of common accounting transactions on your own. As in the Interactive Exercise, the accounting transaction for each row is on the left of the grid.</t>
+Each row in the interactive grid below contains an accounting transaction in the first column. Complete each row by entering amounts under the two account columns that are relevant to the transaction. In the last row, calculate the ending balances similar to how you would in an Excel spreadsheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,31 +177,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Open sans"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Open sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Open sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -327,243 +313,244 @@
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1057,10 +1044,10 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -1075,343 +1062,346 @@
     <col min="16" max="16" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" ht="46.5" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="1:15" ht="35.1" customHeight="1" thickBot="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="27" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>6500</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17">
+      <c r="D5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18">
         <v>6500</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="17"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="25">
         <v>-3000</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="24">
+      <c r="D6" s="19"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="25">
         <v>3000</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="25">
         <v>1000</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="24">
+      <c r="D7" s="19"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="25">
         <v>1000</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="24">
+      <c r="C8" s="25"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="25">
         <v>700</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24">
+      <c r="H8" s="20"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>-200</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24">
+      <c r="D9" s="19"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" ht="24" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="25">
         <v>-500</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="24">
+      <c r="D10" s="19"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="25">
         <v>-500</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="24">
+      <c r="C11" s="25"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="25">
         <v>3000</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="24">
+      <c r="F11" s="20"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="25">
         <v>3000</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="26">
         <v>1500</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="25">
+      <c r="D12" s="19"/>
+      <c r="E12" s="26">
         <v>-1500</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="25"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="26"/>
     </row>
-    <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="26">
         <f>SUM(C5:C12)</f>
         <v>5300</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="25">
+      <c r="D13" s="19"/>
+      <c r="E13" s="26">
         <f>SUM(E5:E12)</f>
         <v>1500</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="25">
+      <c r="F13" s="20"/>
+      <c r="G13" s="26">
         <f>SUM(G5:G12)</f>
         <v>200</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25">
+      <c r="H13" s="20"/>
+      <c r="I13" s="26">
         <f>SUM(I5:I12)</f>
         <v>6500</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="25">
+      <c r="J13" s="21"/>
+      <c r="K13" s="26">
         <f>SUM(K5:K12)</f>
         <v>4000</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="25">
+      <c r="L13" s="22"/>
+      <c r="M13" s="26">
         <f>SUM(M5:M12)</f>
         <v>3000</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="25">
+      <c r="N13" s="24"/>
+      <c r="O13" s="26">
         <f>SUM(O5:O12)</f>
         <v>900</v>
       </c>
